--- a/data_processing_elements-SHR.xlsx
+++ b/data_processing_elements-SHR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ca058780ebd4867/ProPASS/dpe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{EAFA0F5D-D41C-4C73-B15F-460B5AC822F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F48F868-0CF6-4F8D-BA98-61A9BC49E9FC}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{EAFA0F5D-D41C-4C73-B15F-460B5AC822F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1774480C-59B5-4DBF-9640-AB51DB8C1EA1}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="1392" windowWidth="23256" windowHeight="12456" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="368">
   <si>
     <t>index</t>
   </si>
@@ -1329,9 +1329,6 @@
     <t>case_when(
 BR016_ModSprtsAct %in% 1:3 ~ 1L;
 ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>e</t>
   </si>
 </sst>
 </file>
@@ -1478,6 +1475,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1797,13 +1798,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E8173B-75E7-48BF-A0E5-5399D58BE189}">
-  <dimension ref="A1:U1329"/>
+  <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5274,11 +5275,6 @@
       </c>
       <c r="U84" s="3"/>
     </row>
-    <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1329" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:U84" xr:uid="{E2AE202E-3036-4C4F-A2B8-1E3109A6638C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U84">

--- a/data_processing_elements-SHR.xlsx
+++ b/data_processing_elements-SHR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atrottier\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785398A4-9344-4675-A965-77FF4FE9CBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B07117-878E-4FBC-BFE1-31340E67B585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29220" yWindow="-6435" windowWidth="15660" windowHeight="15330" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="402">
   <si>
     <t>index</t>
   </si>
@@ -1139,9 +1139,6 @@
   </si>
   <si>
     <t>ph006d3</t>
-  </si>
-  <si>
-    <t>Collected information included Heart attack, myocardial infarction, coronary thrombosis, any other heart problem including congestive heart failure, hypertension, stroke and cerebrovascular disease.</t>
   </si>
   <si>
     <t>isced1997_r</t>
@@ -1455,6 +1452,16 @@
   </si>
   <si>
     <t>All participants have valid Year and Month, none of them selected "Not applicable", "Refusal", or "Don't Know"</t>
+  </si>
+  <si>
+    <t>Missings/refusal/don’t know was replaced with information from previous waves.</t>
+  </si>
+  <si>
+    <t>Information from different waves was combined</t>
+  </si>
+  <si>
+    <t>Collected information included Heart attack, myocardial infarction, coronary thrombosis, any other heart problem including congestive heart failure, hypertension, stroke and cerebrovascular disease.
+Information from different waves was combined</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1559,6 +1566,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1901,10 +1912,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,13 +2064,13 @@
         <v>317</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>23</v>
@@ -2103,7 +2114,7 @@
         <v>284</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>23</v>
@@ -2144,10 +2155,10 @@
         <v>319</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>23</v>
@@ -2159,7 +2170,7 @@
         <v>30</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2185,7 +2196,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>285</v>
@@ -2194,7 +2205,7 @@
         <v>286</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>23</v>
@@ -2206,7 +2217,7 @@
         <v>36</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2279,7 +2290,7 @@
         <v>288</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>23</v>
@@ -2291,7 +2302,7 @@
         <v>36</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2326,7 +2337,7 @@
         <v>290</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>56</v>
@@ -2371,7 +2382,7 @@
         <v>290</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>23</v>
@@ -2383,10 +2394,10 @@
         <v>30</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2415,7 +2426,7 @@
         <v>292</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>23</v>
@@ -2426,8 +2437,8 @@
       <c r="R11" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="S11" s="8" t="s">
-        <v>349</v>
+      <c r="S11" s="10" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2462,7 +2473,7 @@
         <v>288</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P12" s="8" t="s">
         <v>23</v>
@@ -2474,7 +2485,7 @@
         <v>36</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2509,7 +2520,10 @@
         <v>294</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>23</v>
@@ -2521,7 +2535,7 @@
         <v>36</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2550,13 +2564,16 @@
         <v>324</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>400</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>23</v>
@@ -2568,7 +2585,7 @@
         <v>199</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2597,13 +2614,13 @@
         <v>325</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>311</v>
@@ -2653,7 +2670,10 @@
         <v>296</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>23</v>
@@ -2665,7 +2685,7 @@
         <v>30</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -2700,7 +2720,7 @@
         <v>296</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P17" s="8" t="s">
         <v>23</v>
@@ -2712,7 +2732,7 @@
         <v>30</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2738,7 +2758,7 @@
         <v>92</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>297</v>
@@ -2747,7 +2767,7 @@
         <v>298</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P18" s="8" t="s">
         <v>23</v>
@@ -2759,7 +2779,7 @@
         <v>30</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2785,7 +2805,7 @@
         <v>89</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>297</v>
@@ -2794,7 +2814,7 @@
         <v>298</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P19" s="8" t="s">
         <v>23</v>
@@ -2806,7 +2826,7 @@
         <v>30</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2839,7 +2859,7 @@
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P20" s="8" t="s">
         <v>23</v>
@@ -2851,7 +2871,7 @@
         <v>30</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -3795,7 +3815,7 @@
         <v>300</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>301</v>
@@ -3887,7 +3907,7 @@
         <v>303</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P47" s="8" t="s">
         <v>23</v>
@@ -3899,7 +3919,7 @@
         <v>30</v>
       </c>
       <c r="S47" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -3928,13 +3948,13 @@
         <v>330</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>304</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P48" s="8" t="s">
         <v>23</v>
@@ -3949,7 +3969,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="200.25" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -3979,10 +3999,10 @@
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>337</v>
+        <v>382</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>401</v>
       </c>
       <c r="P49" s="8" t="s">
         <v>23</v>
@@ -4023,13 +4043,13 @@
         <v>333</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>305</v>
@@ -4044,7 +4064,7 @@
         <v>199</v>
       </c>
       <c r="S50" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -4073,10 +4093,10 @@
         <v>51</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P51" s="8" t="s">
         <v>56</v>
@@ -4158,10 +4178,13 @@
         <v>335</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="P53" s="8" t="s">
         <v>23</v>
@@ -4202,13 +4225,13 @@
         <v>336</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P54" s="8" t="s">
         <v>23</v>
@@ -4246,16 +4269,16 @@
         <v>184</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>306</v>
@@ -4270,7 +4293,7 @@
         <v>199</v>
       </c>
       <c r="S55" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -4296,16 +4319,16 @@
         <v>184</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>306</v>
@@ -4320,7 +4343,7 @@
         <v>199</v>
       </c>
       <c r="S56" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -4346,16 +4369,16 @@
         <v>184</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>306</v>
@@ -4370,7 +4393,7 @@
         <v>199</v>
       </c>
       <c r="S57" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -5287,16 +5310,16 @@
         <v>184</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O82" s="8" t="s">
         <v>307</v>
@@ -5311,7 +5334,7 @@
         <v>199</v>
       </c>
       <c r="S82" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">

--- a/data_processing_elements-SHR.xlsx
+++ b/data_processing_elements-SHR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B07117-878E-4FBC-BFE1-31340E67B585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3090D410-CBAD-42B0-881F-6E013BCAB540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -1541,7 +1541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1569,7 +1569,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1912,10 +1911,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M49" sqref="M49"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,7 +2571,7 @@
       <c r="M14" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="8" t="s">
         <v>400</v>
       </c>
       <c r="P14" s="8" t="s">
@@ -3534,7 +3533,7 @@
         <v>145</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>146</v>
@@ -3610,7 +3609,7 @@
         <v>154</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>146</v>
